--- a/SeismoSense via LRW Datumi.xlsx
+++ b/SeismoSense via LRW Datumi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nina\Desktop\Upravljanje GIS projektima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C47E088B-08FE-4B98-91D2-8DA3DC795B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11560B25-4E72-44D9-A8E6-8A2C01763493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2472" yWindow="1596" windowWidth="19920" windowHeight="9684" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,8 +511,8 @@
         <v>44939</v>
       </c>
       <c r="F2" s="2">
-        <f>DATE(2023,1,16)</f>
-        <v>44942</v>
+        <f>DATE(2023,1,15)</f>
+        <v>44941</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -529,12 +529,12 @@
         <v>7</v>
       </c>
       <c r="E3" s="2">
+        <f>DATE(2023,1,15)</f>
+        <v>44941</v>
+      </c>
+      <c r="F3" s="2">
         <f>DATE(2023,1,16)</f>
         <v>44942</v>
-      </c>
-      <c r="F3" s="2">
-        <f>DATE(2023,1,17)</f>
-        <v>44943</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -551,12 +551,12 @@
         <v>8</v>
       </c>
       <c r="E4" s="2">
-        <f>DATE(2023,1,17)</f>
-        <v>44943</v>
+        <f>DATE(2023,1,16)</f>
+        <v>44942</v>
       </c>
       <c r="F4" s="2">
-        <f>DATE(2023,1,19)</f>
-        <v>44945</v>
+        <f>DATE(2023,1,18)</f>
+        <v>44944</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -573,8 +573,8 @@
         <v>9</v>
       </c>
       <c r="E5" s="2">
-        <f>DATE(2023,1,19)</f>
-        <v>44945</v>
+        <f>DATE(2023,1,18)</f>
+        <v>44944</v>
       </c>
       <c r="F5" s="2">
         <f>DATE(2023,1,20)</f>
